--- a/data/Historico de Robos MELI.xlsx
+++ b/data/Historico de Robos MELI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/appRiskMELI/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\OneDrive - ILSP GLOBAL SEGURIDAD PRIVADA SAPI DE C.V\Documentos\Areas de Trabajo\Inteligencia de Negocios\Aplicaciones\Productivo\appRiskMELI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{6A298EBD-FC44-488A-8659-5A68650D1D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C373C400-2ED2-45EE-BA5D-08751D3AF495}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547EEEA-0899-44E1-831A-85133F72459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3ABED971-E257-44F9-8D6F-636A0F53C45B}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$X$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$Y$45</definedName>
     <definedName name="ApiKey">#REF!</definedName>
     <definedName name="daygrid2">[1]!días2+[1]!semanas2*7</definedName>
     <definedName name="daypattern">{1,1,2,2,3,3,4,4,5,5,6,6,7}</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="242">
   <si>
     <t>Circuito Exterior Mexiquense Bicentenario</t>
   </si>
@@ -772,6 +772,18 @@
   </si>
   <si>
     <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -1348,20 +1360,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393EC93-98E4-4836-98B9-D7F9AF3F2D10}">
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="21" max="21" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="60" customWidth="1"/>
-    <col min="24" max="24" width="49.77734375" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="24" max="24" width="60" customWidth="1"/>
+    <col min="25" max="25" width="49.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>225</v>
       </c>
@@ -1404,38 +1416,41 @@
       <c r="N1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>44404.375694444447</v>
       </c>
@@ -1478,38 +1493,41 @@
       <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>27</v>
       </c>
-      <c r="R2" s="5">
+      <c r="S2" s="5">
         <v>3</v>
       </c>
-      <c r="S2" s="14">
+      <c r="T2" s="14">
         <v>18.1414683</v>
       </c>
-      <c r="T2" s="5">
+      <c r="U2" s="5">
         <v>-95.511926599999995</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>44404.459027777775</v>
       </c>
-      <c r="V2" s="5">
+      <c r="W2" s="5">
         <v>11</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>226</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>44441</v>
       </c>
@@ -1552,38 +1570,41 @@
       <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>2</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>5</v>
       </c>
-      <c r="S3" s="5">
+      <c r="T3" s="5">
         <v>20.590164999999999</v>
       </c>
-      <c r="T3" s="5">
+      <c r="U3" s="5">
         <v>-100.2745233</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>44441.520138888889</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>12</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>227</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>44456</v>
       </c>
@@ -1626,38 +1647,41 @@
       <c r="N4" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>17</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>6</v>
       </c>
-      <c r="S4" s="5">
+      <c r="T4" s="5">
         <v>19.253178999999999</v>
       </c>
-      <c r="T4" s="5">
+      <c r="U4" s="5">
         <v>-98.428662000000003</v>
       </c>
-      <c r="U4" s="6">
+      <c r="V4" s="6">
         <v>44456.450694444444</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>10</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>228</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>44491.286192129628</v>
       </c>
@@ -1700,38 +1724,41 @@
       <c r="N5" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>22</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <v>6</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>20.051034999999999</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <v>-101.13573</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <v>44491.369444444441</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <v>8</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>229</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>44517</v>
       </c>
@@ -1774,38 +1801,41 @@
       <c r="N6" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" t="s">
+        <v>239</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>17</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>4</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>19.697313000000001</v>
       </c>
-      <c r="T6" s="5">
+      <c r="U6" s="5">
         <v>-99.075844000000004</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>44516.984722222223</v>
       </c>
-      <c r="V6" s="5">
-        <v>23</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="W6" s="5">
+        <v>23</v>
+      </c>
+      <c r="X6" t="s">
         <v>236</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>44552</v>
       </c>
@@ -1848,38 +1878,41 @@
       <c r="N7" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>22</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>4</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>19.977383</v>
       </c>
-      <c r="T7" s="5">
+      <c r="U7" s="5">
         <v>-99.436080000000004</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <v>44552.879166666666</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>21</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>230</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>44559</v>
       </c>
@@ -1922,38 +1955,41 @@
       <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" t="s">
+        <v>239</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>29</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>4</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>19.635090000000002</v>
       </c>
-      <c r="T8" s="5">
+      <c r="U8" s="5">
         <v>-99.052308100000005</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <v>44559.844444444447</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <v>20</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>236</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>44616</v>
       </c>
@@ -1996,38 +2032,41 @@
       <c r="N9" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" t="s">
+        <v>240</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>24</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>21.042783737182599</v>
       </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5">
         <v>-101.622367</v>
       </c>
-      <c r="U9" s="6">
+      <c r="V9" s="6">
         <v>44616.136111111111</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <v>3</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>231</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>44680</v>
       </c>
@@ -2070,38 +2109,41 @@
       <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>29</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>6</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>19.445450000000001</v>
       </c>
-      <c r="T10" s="5">
+      <c r="U10" s="5">
         <v>-97.601997999999995</v>
       </c>
-      <c r="U10" s="6">
+      <c r="V10" s="6">
         <v>44680.32708333333</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>7</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>228</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>44729</v>
       </c>
@@ -2144,38 +2186,41 @@
       <c r="N11" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" t="s">
+        <v>240</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>17</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>6</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>20.592829999999999</v>
       </c>
-      <c r="T11" s="5">
+      <c r="U11" s="5">
         <v>-101.15206000000001</v>
       </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
         <v>44729.1875</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <v>4</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>231</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>44759</v>
       </c>
@@ -2218,38 +2263,41 @@
       <c r="N12" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" t="s">
+        <v>240</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>17</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>1</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>20.128299999999999</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <v>-99.725210000000004</v>
       </c>
-      <c r="U12" s="6">
+      <c r="V12" s="6">
         <v>44759.379166666666</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>9</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>236</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>44765</v>
       </c>
@@ -2292,38 +2340,41 @@
       <c r="N13" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" t="s">
+        <v>240</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="5">
-        <v>23</v>
-      </c>
       <c r="R13" s="5">
+        <v>23</v>
+      </c>
+      <c r="S13" s="5">
         <v>7</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>22.001034000000001</v>
       </c>
-      <c r="T13" s="5">
+      <c r="U13" s="5">
         <v>-100.85301</v>
       </c>
-      <c r="U13" s="6">
+      <c r="V13" s="6">
         <v>44765.175000000003</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <v>4</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>232</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>44827</v>
       </c>
@@ -2366,38 +2417,41 @@
       <c r="N14" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" t="s">
+        <v>240</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="Q14" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="5">
-        <v>23</v>
-      </c>
       <c r="R14" s="5">
+        <v>23</v>
+      </c>
+      <c r="S14" s="5">
         <v>6</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>19.336905000000002</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <v>-98.584571999999994</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="6">
         <v>44827.30972222222</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <v>7</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>228</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>44830</v>
       </c>
@@ -2440,38 +2494,41 @@
       <c r="N15" t="s">
         <v>1</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" t="s">
+        <v>240</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>26</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>2</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>18.935167</v>
       </c>
-      <c r="T15" s="5">
+      <c r="U15" s="5">
         <v>-97.691737000000003</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <v>44830.770833333336</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <v>18</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>228</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>44854</v>
       </c>
@@ -2514,38 +2571,41 @@
       <c r="N16" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>20</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>5</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>19.691215799999998</v>
       </c>
-      <c r="T16" s="5">
+      <c r="U16" s="5">
         <v>-99.203569999999999</v>
       </c>
-      <c r="U16" s="6">
+      <c r="V16" s="6">
         <v>44854.924166666664</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <v>22</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>236</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44866</v>
       </c>
@@ -2588,38 +2648,41 @@
       <c r="N17" t="s">
         <v>87</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="Q17" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>1</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>3</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>19.436699999999998</v>
       </c>
-      <c r="T17" s="5">
+      <c r="U17" s="5">
         <v>-98.998180000000005</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="6">
         <v>44866.160416666666</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <v>3</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>236</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44878</v>
       </c>
@@ -2662,38 +2725,41 @@
       <c r="N18" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>13</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>1</v>
       </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
         <v>24.714894999999999</v>
       </c>
-      <c r="T18" s="5">
+      <c r="U18" s="5">
         <v>-100.3038</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <v>44878.102083333331</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
         <v>2</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>233</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44887</v>
       </c>
@@ -2736,38 +2802,41 @@
       <c r="N19" t="s">
         <v>87</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" t="s">
+        <v>240</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <v>22</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>3</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <v>19.415181700000002</v>
       </c>
-      <c r="T19" s="5">
+      <c r="U19" s="5">
         <v>-98.986220000000003</v>
       </c>
-      <c r="U19" s="6">
+      <c r="V19" s="6">
         <v>44887.59097222222</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="5">
         <v>14</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>236</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44925</v>
       </c>
@@ -2810,38 +2879,41 @@
       <c r="N20" t="s">
         <v>130</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" t="s">
+        <v>240</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="5">
         <v>30</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S20" s="5">
         <v>6</v>
       </c>
-      <c r="S20" s="5">
+      <c r="T20" s="5">
         <v>23.598873999999999</v>
       </c>
-      <c r="T20" s="5">
+      <c r="U20" s="5">
         <v>-103.310965</v>
       </c>
-      <c r="U20" s="6">
+      <c r="V20" s="6">
         <v>44925.220138888886</v>
       </c>
-      <c r="V20" s="5">
+      <c r="W20" s="5">
         <v>5</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>234</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44919</v>
       </c>
@@ -2884,38 +2956,41 @@
       <c r="N21" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" t="s">
+        <v>240</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <v>24</v>
       </c>
-      <c r="R21" s="5">
+      <c r="S21" s="5">
         <v>7</v>
       </c>
-      <c r="S21" s="5">
+      <c r="T21" s="5">
         <v>18.897600000000001</v>
       </c>
-      <c r="T21" s="5">
+      <c r="U21" s="5">
         <v>-97.612480000000005</v>
       </c>
-      <c r="U21" s="6">
+      <c r="V21" s="6">
         <v>44919.182638888888</v>
       </c>
-      <c r="V21" s="5">
+      <c r="W21" s="5">
         <v>4</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>228</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44897</v>
       </c>
@@ -2958,38 +3033,41 @@
       <c r="N22" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" t="s">
+        <v>240</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="Q22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <v>2</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <v>6</v>
       </c>
-      <c r="S22" s="5">
+      <c r="T22" s="5">
         <v>20.110143000000001</v>
       </c>
-      <c r="T22" s="5">
+      <c r="U22" s="5">
         <v>-98.395142000000007</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <v>44897.263194444444</v>
       </c>
-      <c r="V22" s="5">
+      <c r="W22" s="5">
         <v>6</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>230</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>44931</v>
       </c>
@@ -3032,38 +3110,41 @@
       <c r="N23" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" t="s">
+        <v>241</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="Q23" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>5</v>
       </c>
       <c r="R23" s="5">
         <v>5</v>
       </c>
       <c r="S23" s="5">
+        <v>5</v>
+      </c>
+      <c r="T23" s="5">
         <v>18.578959999999999</v>
       </c>
-      <c r="T23" s="5">
+      <c r="U23" s="5">
         <v>-96.173140000000004</v>
       </c>
-      <c r="U23" s="6">
+      <c r="V23" s="6">
         <v>44931.297222222223</v>
       </c>
-      <c r="V23" s="5">
+      <c r="W23" s="5">
         <v>7</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>226</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44976</v>
       </c>
@@ -3106,38 +3187,41 @@
       <c r="N24" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" t="s">
+        <v>241</v>
+      </c>
+      <c r="P24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="Q24" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="R24" s="5">
         <v>19</v>
       </c>
-      <c r="R24" s="5">
+      <c r="S24" s="5">
         <v>1</v>
       </c>
-      <c r="S24" s="5">
+      <c r="T24" s="5">
         <v>18.5869</v>
       </c>
-      <c r="T24" s="5">
+      <c r="U24" s="5">
         <v>-102.04219000000001</v>
       </c>
-      <c r="U24" s="6">
+      <c r="V24" s="6">
         <v>44976.208333333336</v>
       </c>
-      <c r="V24" s="5">
+      <c r="W24" s="5">
         <v>5</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>229</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44984</v>
       </c>
@@ -3180,38 +3264,41 @@
       <c r="N25" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" t="s">
+        <v>241</v>
+      </c>
+      <c r="P25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="Q25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="R25" s="5">
         <v>27</v>
       </c>
-      <c r="R25" s="5">
+      <c r="S25" s="5">
         <v>2</v>
       </c>
-      <c r="S25" s="5">
+      <c r="T25" s="5">
         <v>19.206593000000002</v>
       </c>
-      <c r="T25" s="5">
+      <c r="U25" s="5">
         <v>-99.195660000000004</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <v>44984.173611111109</v>
       </c>
-      <c r="V25" s="5">
+      <c r="W25" s="5">
         <v>4</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>237</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44994</v>
       </c>
@@ -3254,38 +3341,41 @@
       <c r="N26" t="s">
         <v>91</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" t="s">
+        <v>241</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>9</v>
       </c>
-      <c r="R26" s="1">
+      <c r="S26" s="1">
         <v>5</v>
       </c>
-      <c r="S26" s="5">
+      <c r="T26" s="5">
         <v>18.396597</v>
       </c>
-      <c r="T26" s="5">
+      <c r="U26" s="5">
         <v>-97.375309999999999</v>
       </c>
-      <c r="U26" s="6">
+      <c r="V26" s="6">
         <v>44994.197916666664</v>
       </c>
-      <c r="V26" s="5">
+      <c r="W26" s="5">
         <v>4</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>228</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>45043</v>
       </c>
@@ -3328,38 +3418,41 @@
       <c r="N27" t="s">
         <v>62</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" t="s">
+        <v>241</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>27</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="1">
         <v>5</v>
       </c>
-      <c r="S27" s="5">
+      <c r="T27" s="5">
         <v>24.639889</v>
       </c>
-      <c r="T27" s="5">
+      <c r="U27" s="5">
         <v>-100.28632</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="6">
         <v>45043.154861111114</v>
       </c>
-      <c r="V27" s="5">
+      <c r="W27" s="5">
         <v>3</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>233</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>45049</v>
       </c>
@@ -3402,38 +3495,41 @@
       <c r="N28" t="s">
         <v>91</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
+        <v>241</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>3</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="1">
         <v>4</v>
       </c>
-      <c r="S28" s="5">
+      <c r="T28" s="5">
         <v>19.005649999999999</v>
       </c>
-      <c r="T28" s="5">
+      <c r="U28" s="5">
         <v>-97.898669999999996</v>
       </c>
-      <c r="U28" s="6">
+      <c r="V28" s="6">
         <v>45049.106249999997</v>
       </c>
-      <c r="V28" s="5">
+      <c r="W28" s="5">
         <v>2</v>
       </c>
-      <c r="W28" t="s">
+      <c r="X28" t="s">
         <v>228</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>45084</v>
       </c>
@@ -3476,38 +3572,41 @@
       <c r="N29" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" t="s">
+        <v>241</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>7</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="1">
         <v>4</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>22.0078283</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>-100.83682829999999</v>
       </c>
-      <c r="U29" s="2">
+      <c r="V29" s="2">
         <v>45084.150694444441</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>3</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>232</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>45090</v>
       </c>
@@ -3550,38 +3649,41 @@
       <c r="N30" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>13</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="1">
         <v>3</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <v>18.976140000000001</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>-97.809160000000006</v>
       </c>
-      <c r="U30" s="2">
+      <c r="V30" s="2">
         <v>45090.913194444445</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>21</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>228</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>45092</v>
       </c>
@@ -3624,38 +3726,41 @@
       <c r="N31" t="s">
         <v>87</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" t="s">
+        <v>241</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>15</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="1">
         <v>5</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <v>19.719819999999999</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>-99.204663999999994</v>
       </c>
-      <c r="U31" s="2">
+      <c r="V31" s="2">
         <v>45092.1875</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="1">
         <v>4</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>236</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>45104</v>
       </c>
@@ -3698,38 +3803,41 @@
       <c r="N32" t="s">
         <v>1</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="R32" s="1">
         <v>27</v>
       </c>
-      <c r="R32" s="1">
+      <c r="S32" s="1">
         <v>3</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>19.290944</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>-99.610770000000002</v>
       </c>
-      <c r="U32" s="2">
+      <c r="V32" s="2">
         <v>45104.614583333336</v>
       </c>
-      <c r="V32" s="1">
+      <c r="W32" s="1">
         <v>14</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>236</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>45108</v>
       </c>
@@ -3772,38 +3880,41 @@
       <c r="N33" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" t="s">
+        <v>241</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="R33" s="1">
         <v>1</v>
       </c>
-      <c r="R33" s="1">
+      <c r="S33" s="1">
         <v>7</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>20.001940000000001</v>
       </c>
-      <c r="T33" s="1">
+      <c r="U33" s="1">
         <v>-99.495320000000007</v>
       </c>
-      <c r="U33" s="2">
+      <c r="V33" s="2">
         <v>45108.109027777777</v>
       </c>
-      <c r="V33" s="1">
+      <c r="W33" s="1">
         <v>2</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>236</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45148</v>
       </c>
@@ -3846,38 +3957,41 @@
       <c r="N34" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <v>10</v>
       </c>
-      <c r="R34" s="1">
+      <c r="S34" s="1">
         <v>5</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>18.854498</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>-97.417832000000004</v>
       </c>
-      <c r="U34" s="2">
+      <c r="V34" s="2">
         <v>45148.180555555555</v>
       </c>
-      <c r="V34" s="1">
+      <c r="W34" s="1">
         <v>4</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>228</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>45142</v>
       </c>
@@ -3920,38 +4034,41 @@
       <c r="N35" t="s">
         <v>73</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" t="s">
+        <v>241</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="R35" s="1">
         <v>4</v>
       </c>
-      <c r="R35" s="1">
+      <c r="S35" s="1">
         <v>6</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>18.946929999999998</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <v>-97.722719999999995</v>
       </c>
-      <c r="U35" s="2">
+      <c r="V35" s="2">
         <v>45142.899305555555</v>
       </c>
-      <c r="V35" s="1">
+      <c r="W35" s="1">
         <v>21</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>228</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>45181</v>
       </c>
@@ -3994,38 +4111,41 @@
       <c r="N36" t="s">
         <v>62</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" t="s">
+        <v>241</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R36" s="1">
         <v>12</v>
       </c>
-      <c r="R36" s="1">
+      <c r="S36" s="1">
         <v>3</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>22.345254700000002</v>
       </c>
-      <c r="T36" s="1">
+      <c r="U36" s="1">
         <v>-100.7968468</v>
       </c>
-      <c r="U36" s="2">
+      <c r="V36" s="2">
         <v>45181.247666585645</v>
       </c>
-      <c r="V36" s="1">
+      <c r="W36" s="1">
         <v>5</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>232</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>45188</v>
       </c>
@@ -4068,38 +4188,41 @@
       <c r="N37" t="s">
         <v>62</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" t="s">
+        <v>241</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="1">
         <v>19</v>
       </c>
-      <c r="R37" s="1">
+      <c r="S37" s="1">
         <v>3</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>23.783131999999998</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="1">
         <v>-100.57510000000001</v>
       </c>
-      <c r="U37" s="2">
+      <c r="V37" s="2">
         <v>45189.305555555555</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="1">
         <v>7</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>232</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>45190</v>
       </c>
@@ -4142,38 +4265,41 @@
       <c r="N38" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" t="s">
+        <v>241</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>21</v>
       </c>
-      <c r="R38" s="1">
+      <c r="S38" s="1">
         <v>5</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>18.846641458103498</v>
       </c>
-      <c r="T38" s="1">
+      <c r="U38" s="1">
         <v>-97.449954830682302</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>45190.143055555556</v>
       </c>
-      <c r="V38" s="1">
+      <c r="W38" s="1">
         <v>3</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>228</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>45197</v>
       </c>
@@ -4216,38 +4342,41 @@
       <c r="N39" t="s">
         <v>50</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" t="s">
+        <v>241</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R39" s="1">
         <v>28</v>
       </c>
-      <c r="R39" s="1">
+      <c r="S39" s="1">
         <v>5</v>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <v>19.441770000000002</v>
       </c>
-      <c r="T39" s="1">
+      <c r="U39" s="1">
         <v>-98.967879999999994</v>
       </c>
-      <c r="U39" s="2">
+      <c r="V39" s="2">
         <v>45197.616666666669</v>
       </c>
-      <c r="V39" s="1">
+      <c r="W39" s="1">
         <v>14</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>236</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>45187</v>
       </c>
@@ -4290,38 +4419,41 @@
       <c r="N40" t="s">
         <v>34</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" t="s">
+        <v>241</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R40" s="1">
         <v>18</v>
       </c>
-      <c r="R40" s="1">
+      <c r="S40" s="1">
         <v>2</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>19.683198000000001</v>
       </c>
-      <c r="T40" s="1">
+      <c r="U40" s="1">
         <v>-98.593172999999993</v>
       </c>
-      <c r="U40" s="2">
+      <c r="V40" s="2">
         <v>45187.984722222223</v>
       </c>
-      <c r="V40" s="1">
-        <v>23</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="W40" s="1">
+        <v>23</v>
+      </c>
+      <c r="X40" t="s">
         <v>230</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>45187</v>
       </c>
@@ -4364,38 +4496,41 @@
       <c r="N41" t="s">
         <v>34</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" t="s">
+        <v>241</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="Q41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>18</v>
       </c>
-      <c r="R41" s="1">
+      <c r="S41" s="1">
         <v>2</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>19.683198000000001</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <v>-98.593172999999993</v>
       </c>
-      <c r="U41" s="2">
+      <c r="V41" s="2">
         <v>45187.984027777777</v>
       </c>
-      <c r="V41" s="1">
-        <v>23</v>
-      </c>
-      <c r="W41" t="s">
+      <c r="W41" s="1">
+        <v>23</v>
+      </c>
+      <c r="X41" t="s">
         <v>230</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>45190</v>
       </c>
@@ -4438,38 +4573,41 @@
       <c r="N42" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" t="s">
+        <v>241</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>21</v>
       </c>
-      <c r="R42" s="1">
+      <c r="S42" s="1">
         <v>5</v>
       </c>
-      <c r="S42" s="1">
+      <c r="T42" s="1">
         <v>19.519594633654201</v>
       </c>
-      <c r="T42" s="1">
+      <c r="U42" s="1">
         <v>-96.883476255375996</v>
       </c>
-      <c r="U42" s="2">
+      <c r="V42" s="2">
         <v>45190.143055555556</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>3</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>228</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>45203</v>
       </c>
@@ -4512,38 +4650,41 @@
       <c r="N43" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" t="s">
+        <v>241</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="Q43" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>4</v>
       </c>
       <c r="R43" s="1">
         <v>4</v>
       </c>
       <c r="S43" s="1">
+        <v>4</v>
+      </c>
+      <c r="T43" s="1">
         <v>20.123249999999999</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>-99.723789999999994</v>
       </c>
-      <c r="U43" s="2">
+      <c r="V43" s="2">
         <v>45203.205555555556</v>
       </c>
-      <c r="V43" s="1">
+      <c r="W43" s="1">
         <v>4</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>236</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>45204</v>
       </c>
@@ -4586,38 +4727,41 @@
       <c r="N44" t="s">
         <v>17</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" t="s">
+        <v>241</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>5</v>
       </c>
       <c r="R44" s="1">
         <v>5</v>
       </c>
       <c r="S44" s="1">
+        <v>5</v>
+      </c>
+      <c r="T44" s="1">
         <v>21.202378</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>-101.90288</v>
       </c>
-      <c r="U44" s="2">
+      <c r="V44" s="2">
         <v>45204.12222222222</v>
       </c>
-      <c r="V44" s="1">
+      <c r="W44" s="1">
         <v>2</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>235</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>45204</v>
       </c>
@@ -4660,34 +4804,37 @@
       <c r="N45" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" t="s">
+        <v>241</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>5</v>
       </c>
       <c r="R45" s="1">
         <v>5</v>
       </c>
       <c r="S45" s="1">
+        <v>5</v>
+      </c>
+      <c r="T45" s="1">
         <v>19.800416999999999</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>-99.179739999999995</v>
       </c>
-      <c r="U45" s="2">
+      <c r="V45" s="2">
         <v>45204.085701192133</v>
       </c>
-      <c r="V45" s="1">
+      <c r="W45" s="1">
         <v>2</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>236</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data/Historico de Robos MELI.xlsx
+++ b/data/Historico de Robos MELI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\OneDrive - ILSP GLOBAL SEGURIDAD PRIVADA SAPI DE C.V\Documentos\Areas de Trabajo\Inteligencia de Negocios\Aplicaciones\Productivo\appRiskMELI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D547EEEA-0899-44E1-831A-85133F72459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5130D767-8744-4D48-8982-F26E2316A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3ABED971-E257-44F9-8D6F-636A0F53C45B}"/>
   </bookViews>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393EC93-98E4-4836-98B9-D7F9AF3F2D10}">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Historico de Robos MELI.xlsx
+++ b/data/Historico de Robos MELI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\OneDrive - ILSP GLOBAL SEGURIDAD PRIVADA SAPI DE C.V\Documentos\Areas de Trabajo\Inteligencia de Negocios\Aplicaciones\Productivo\appRiskMELI\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/appRiskMELI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5130D767-8744-4D48-8982-F26E2316A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{5130D767-8744-4D48-8982-F26E2316A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A42CCE-43B0-4393-9820-0B0EBA477603}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3ABED971-E257-44F9-8D6F-636A0F53C45B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3ABED971-E257-44F9-8D6F-636A0F53C45B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="256">
   <si>
     <t>Circuito Exterior Mexiquense Bicentenario</t>
   </si>
@@ -784,6 +784,48 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>7B5349162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELOY DAVID FUENTES</t>
+  </si>
+  <si>
+    <t>XHALA MXXEM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CANCUN (SCN1)</t>
+  </si>
+  <si>
+    <t>7B5345255</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RODOLFO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POZA RICA (SPZ1)</t>
+  </si>
+  <si>
+    <t>7B5300312</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROBERTO MARTINEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHILPANCINGO</t>
+  </si>
+  <si>
+    <t>Autopista Cuernavaca - Ciudad de México</t>
+  </si>
+  <si>
+    <t>QUINTANA ROO</t>
+  </si>
+  <si>
+    <t>GUERRERO</t>
+  </si>
+  <si>
+    <t>Morelos</t>
   </si>
 </sst>
 </file>
@@ -793,7 +835,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,6 +854,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -863,7 +911,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -907,6 +955,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1360,14 +1409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393EC93-98E4-4836-98B9-D7F9AF3F2D10}">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="L17" workbookViewId="0">
+      <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.5546875" style="1"/>
     <col min="22" max="22" width="28.5546875" customWidth="1"/>
     <col min="24" max="24" width="60" customWidth="1"/>
     <col min="25" max="25" width="49.77734375" customWidth="1"/>
@@ -4838,7 +4888,239 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45260</v>
+      </c>
+      <c r="B46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>243</v>
+      </c>
+      <c r="J46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" t="s">
+        <v>244</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>245</v>
+      </c>
+      <c r="N46" t="s">
+        <v>253</v>
+      </c>
+      <c r="O46" t="s">
+        <v>241</v>
+      </c>
+      <c r="P46" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <v>30</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>19.617622000000001</v>
+      </c>
+      <c r="U46">
+        <v>-99.041906999999995</v>
+      </c>
+      <c r="V46" s="15">
+        <v>45260.136111111111</v>
+      </c>
+      <c r="W46">
+        <v>3</v>
+      </c>
+      <c r="X46" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45258</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s">
+        <v>247</v>
+      </c>
+      <c r="J47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>248</v>
+      </c>
+      <c r="N47" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" t="s">
+        <v>241</v>
+      </c>
+      <c r="P47" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>61</v>
+      </c>
+      <c r="R47">
+        <v>28</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>19.684339999999999</v>
+      </c>
+      <c r="U47">
+        <v>-99.075509999999994</v>
+      </c>
+      <c r="V47" s="15">
+        <v>45258.935416666667</v>
+      </c>
+      <c r="W47">
+        <v>22</v>
+      </c>
+      <c r="X47" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>45245</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>250</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>251</v>
+      </c>
+      <c r="N48" t="s">
+        <v>254</v>
+      </c>
+      <c r="O48" t="s">
+        <v>241</v>
+      </c>
+      <c r="P48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48">
+        <v>15</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="T48">
+        <v>18.891286999999998</v>
+      </c>
+      <c r="U48">
+        <v>-99.227660999999998</v>
+      </c>
+      <c r="V48" s="15">
+        <v>45245.1875</v>
+      </c>
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="X48" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
